--- a/Evaluation Metrics.xlsx
+++ b/Evaluation Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EN\Documents\GitHub\forecasting-COVID19-vaccines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D354DFC0-8718-4231-A256-55F3A779F499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B96BAC5-6E5B-4ABA-87D8-CAB16F06CE43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1380" windowWidth="7500" windowHeight="6000" xr2:uid="{92A9CA24-1596-4700-9980-78C460FD42FC}"/>
+    <workbookView xWindow="1725" yWindow="1725" windowWidth="7500" windowHeight="6000" xr2:uid="{92A9CA24-1596-4700-9980-78C460FD42FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Time Series</t>
   </si>
   <si>
-    <t>Daily Vaccinations</t>
-  </si>
-  <si>
     <t>Depend on Vaccines</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Trend</t>
+  </si>
+  <si>
+    <t>Total Vaccinations Per Hundred</t>
   </si>
 </sst>
 </file>
@@ -448,12 +448,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -501,25 +501,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>242228.60565799201</v>
+        <v>0.61396037164313999</v>
       </c>
       <c r="C3">
-        <v>4.18187471267671E-2</v>
+        <v>4.7314431743336903E-2</v>
       </c>
       <c r="D3">
-        <v>0.95446114362865597</v>
+        <v>0.97560080920968195</v>
       </c>
       <c r="E3">
-        <v>195415.04701308001</v>
+        <v>0.582014018166359</v>
       </c>
       <c r="F3">
-        <v>185817.118211822</v>
+        <v>0.54941715083503295</v>
       </c>
       <c r="G3">
-        <v>242228.60565799201</v>
+        <v>0.61396037164313999</v>
       </c>
       <c r="H3">
-        <v>4748979.57142857</v>
+        <v>13.153095238095201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -527,22 +527,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>437748525540.52899</v>
+        <v>3.0904466157800799E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.03888824909114E-2</v>
       </c>
       <c r="D4">
-        <v>0.88543911773032902</v>
+        <v>0.99876134528290805</v>
       </c>
       <c r="E4">
-        <v>486656.215259296</v>
+        <v>0.15473566739317701</v>
       </c>
       <c r="F4">
-        <v>411114.53060619801</v>
+        <v>0.15473566739317701</v>
       </c>
       <c r="G4">
-        <v>661625.668743685</v>
+        <v>0.17579666139548999</v>
       </c>
       <c r="H4">
-        <v>1967914</v>
+        <v>13.640264332606799</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,25 +553,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>122893.598507517</v>
+        <v>244759.059951212</v>
       </c>
       <c r="C5">
-        <v>5.0860806083365399E-2</v>
+        <v>6.66702249672705E-2</v>
       </c>
       <c r="D5">
-        <v>9.3324453060418699E-2</v>
+        <v>0.99434068987025603</v>
       </c>
       <c r="E5">
-        <v>346.966501302084</v>
+        <v>406.07300077216598</v>
       </c>
       <c r="F5">
-        <v>349.23660156250003</v>
+        <v>360.02773437500201</v>
       </c>
       <c r="G5">
-        <v>350.56183264513697</v>
+        <v>494.73130075952503</v>
       </c>
       <c r="H5">
-        <v>7205.4633999999996</v>
+        <v>14159.734</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,44 +579,44 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>738449913465.776</v>
+        <v>0.75423728813559299</v>
       </c>
       <c r="C6">
-        <v>159355.635000515</v>
+        <v>0.23819962127277</v>
       </c>
       <c r="D6">
-        <v>0.89234687283452496</v>
+        <v>0.97587283499932198</v>
       </c>
       <c r="E6">
-        <v>741977.83602729498</v>
+        <v>0.61864406779660996</v>
       </c>
       <c r="F6">
-        <v>667912.83322023205</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>859331.08489439404</v>
+        <v>0.86846835759030006</v>
       </c>
       <c r="H6">
-        <v>2543814.7565217302</v>
+        <v>5.42372881355932</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -624,10 +627,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation Metrics.xlsx
+++ b/Evaluation Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EN\Documents\GitHub\forecasting-COVID19-vaccines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B96BAC5-6E5B-4ABA-87D8-CAB16F06CE43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488CB32-B89F-4473-897D-7D9486D29250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="1725" windowWidth="7500" windowHeight="6000" xr2:uid="{92A9CA24-1596-4700-9980-78C460FD42FC}"/>
   </bookViews>
@@ -97,6 +97,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,11 +136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +461,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,22 +539,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3.0904466157800799E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.03888824909114E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.99876134528290805</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.15473566739317701</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.15473566739317701</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0.17579666139548999</v>
       </c>
       <c r="H4">
@@ -552,8 +565,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>244759.059951212</v>
+      <c r="B5" s="4">
+        <f>244759.059951212/1000000</f>
+        <v>0.244759059951212</v>
       </c>
       <c r="C5">
         <v>6.66702249672705E-2</v>
@@ -562,13 +576,16 @@
         <v>0.99434068987025603</v>
       </c>
       <c r="E5">
-        <v>406.07300077216598</v>
+        <f>406.073000772166/1000</f>
+        <v>0.40607300077216596</v>
       </c>
       <c r="F5">
-        <v>360.02773437500201</v>
-      </c>
-      <c r="G5">
-        <v>494.73130075952503</v>
+        <f>360.027734375002/1000</f>
+        <v>0.36002773437500202</v>
+      </c>
+      <c r="G5" s="3">
+        <f>494.731300759525/1000</f>
+        <v>0.49473130075952504</v>
       </c>
       <c r="H5">
         <v>14159.734</v>
